--- a/doc/perf.xlsx
+++ b/doc/perf.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25714" windowHeight="13311" xr2:uid="{945BC806-08A7-409B-9EF6-AD5E2B01CB71}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="25714" windowHeight="13311" xr2:uid="{945BC806-08A7-409B-9EF6-AD5E2B01CB71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>fastparquet</t>
   </si>
@@ -35,7 +35,13 @@
     <t>Read</t>
   </si>
   <si>
-    <t>Write</t>
+    <t>Write (uncompressed)</t>
+  </si>
+  <si>
+    <t>Write (gzip)</t>
+  </si>
+  <si>
+    <t>Write (snappy)</t>
   </si>
 </sst>
 </file>
@@ -71,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,10 +218,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>729</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>490</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -222,6 +229,913 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-500C-44F9-9001-5509431D00A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="519391672"/>
+        <c:axId val="519390032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="519391672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519390032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="519390032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519391672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>write</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> (uncompressed)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Write (uncompressed)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>fastparquet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>parquet-dotnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0684-4AB0-ACA7-EA3343E38D5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="519391672"/>
+        <c:axId val="519390032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="519391672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519390032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="519390032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519391672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>write</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> (gzip)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Write (gzip)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>fastparquet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>parquet-dotnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7495-45AD-B434-2DFAF8B31F71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="519391672"/>
+        <c:axId val="519390032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="519391672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519390032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="519390032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519391672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>write (snappy)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Write (snappy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>fastparquet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>parquet-dotnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1368-4672-B191-61412A37732F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -429,6 +1343,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -934,20 +1968,1535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>547006</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>51706</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>372834</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>547006</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92529</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -967,6 +3516,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35381</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C7CD4FB-04C1-45AF-BCAA-860D1842662A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>206829</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>525238</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BC7FB2-28EF-42CC-B01D-4203B8EE5B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>356509</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49B08B6-C0A7-44A4-9C0E-FFC589075D0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1272,43 +3935,864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43ECFD7-CD3F-4C21-BAA1-8726348229C9}">
-  <dimension ref="A3:C5"/>
+  <dimension ref="A3:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.61328125" customWidth="1"/>
+    <col min="2" max="2" width="4.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>729</v>
+        <v>273</v>
+      </c>
+      <c r="C4">
+        <v>266</v>
+      </c>
+      <c r="D4">
+        <v>5633</v>
+      </c>
+      <c r="E4">
+        <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>490</v>
+        <v>354</v>
       </c>
+      <c r="C5">
+        <v>351</v>
+      </c>
+      <c r="D5">
+        <v>1317</v>
+      </c>
+      <c r="E5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>